--- a/biology/Botanique/Chlorococcaceae/Chlorococcaceae.xlsx
+++ b/biology/Botanique/Chlorococcaceae/Chlorococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Chlorococcaceae est une famille d’algues vertes de l’ordre des Chlamydomonadales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Chlorococcum, composé du préfixe "chlor-", « en rapport avec la couleur verte », et du suffixe "-cocc", « en rapport avec une graine, une baie ou un fruit », littéralement « baie verte ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (20 mars 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (20 mars 2019) :
 Apodochloris Komárek
 Athroocystis West &amp; G.S.West
 Axilococcus Deason &amp; Herndon
@@ -590,7 +606,7 @@
 Tetracystis R.M.Brown, Jr &amp; Bold
 Ulotrichella Iyengar
 Valkanoviella Bourrelly
-Selon BioLib                    (20 mars 2019)[2] :
+Selon BioLib                    (20 mars 2019) :
 Apodochloris Komárek
 Athroocystis West &amp; G.S.West
 Axilococcus T.R. Deason &amp; W.R. Herndon
@@ -631,7 +647,7 @@
 Trochisciopsis G. Vinatzer
 Ulotrichella Iyengar
 Valkanoviella Bourrelly
-Selon Catalogue of Life                                   (20 mars 2019)[3] :
+Selon Catalogue of Life                                   (20 mars 2019) :
 Apodochloris
 Axilococcus
 Axilosphaera
@@ -671,15 +687,15 @@
 Tetracystis
 Ulotrichella
 Valkanoviella
-Selon ITIS      (20 mars 2019)[4] :
+Selon ITIS      (20 mars 2019) :
 Chlorococcum Meneghini, 1842
 Oophila Lambert Ex Printz, 1927
 Schroederia Lemmermann, 1898
 Tetraedron Kuetzing, 1845
-Selon Paleobiology Database                   (20 mars 2019)[5] :
+Selon Paleobiology Database                   (20 mars 2019) :
 Palaeoanacystis
 Tetraedron
-Selon World Register of Marine Species                               (20 mars 2019)[6] :
+Selon World Register of Marine Species                               (20 mars 2019) :
 Apodochloris Komárek, 1959
 Axilococcus T.R.Deason &amp; W.R.Herndon, 1989
 Borgea G.M.Smith, 1922
